--- a/biology/Zoologie/Eupackardia_calleta/Eupackardia_calleta.xlsx
+++ b/biology/Zoologie/Eupackardia_calleta/Eupackardia_calleta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupackardia calleta est un lépidoptère (papillon) de la famille des Saturniidae, de la sous-famille des Saturniinae. C'est la seule espèce du genre monotypique Eupackardia.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique : de l'Arizona jusqu'au Guatémala.
 </t>
@@ -542,9 +556,11 @@
           <t>Chenille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très colorée (verte, jaune, blanche et noire), elle est facile à élever en captivité avec du troène[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très colorée (verte, jaune, blanche et noire), elle est facile à élever en captivité avec du troène.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Chrysalide</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfermée dans un cocon blanc soyeux, en forme d'outre, accroché solidement à une branche.
 </t>
@@ -606,8 +624,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Synonymes
-Saturnia calleta Westwood, 1853 Protonyme
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Saturnia calleta Westwood, 1853 Protonyme
 Platysamia polyommata Tepper, 1882
 Eupackardia semicaeca Cockerell, 1914
 Eupackardia caeca Draudt, 1929; in Seitz
